--- a/1172/1172-testcase.xlsx
+++ b/1172/1172-testcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\1172\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\33-cdptw1-1\1172\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -289,7 +289,6 @@
     <definedName name="食材分類2コード">[7]コード定義!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -5256,8 +5255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36:S37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AO50" sqref="AO50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
